--- a/Project/HLR (1).xlsx
+++ b/Project/HLR (1).xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6096f0eba2cb6f58/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="13_ncr:1_{6684AAA0-C4DC-4A19-83D9-C928D9DDEFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A84DB70-791A-4B1B-93F4-77F28731CBD6}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{6684AAA0-C4DC-4A19-83D9-C928D9DDEFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72022AD1-9162-4732-93CA-3C6987CF9B18}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2BDF9B1-08CF-4084-B7FC-63B7E276CA83}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
-    <sheet name="Test case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="178">
   <si>
     <t>HLR</t>
   </si>
@@ -88,9 +87,6 @@
     <t>Forgot password</t>
   </si>
   <si>
-    <t>While click on it &amp; it shows Forgot password page</t>
-  </si>
-  <si>
     <t>click on share suggestion</t>
   </si>
   <si>
@@ -118,12 +114,6 @@
     <t>while click on it it shows profile option</t>
   </si>
   <si>
-    <t>profile photo option</t>
-  </si>
-  <si>
-    <t>profile option</t>
-  </si>
-  <si>
     <t>education details</t>
   </si>
   <si>
@@ -151,18 +141,6 @@
     <t>while click on diff. button, it works accordingly</t>
   </si>
   <si>
-    <t>While click on diffrenet option in personal details option it doesn't update successfully</t>
-  </si>
-  <si>
-    <t>while click on remove image, it removes image,after relogin it doesn't change</t>
-  </si>
-  <si>
-    <t>While click on it &amp; it doesn't update profile picture after relogin</t>
-  </si>
-  <si>
-    <t>while click on update profile button, it doesn't update changes on personal details</t>
-  </si>
-  <si>
     <t>while click on different important reminder, it works accordingly</t>
   </si>
   <si>
@@ -403,9 +381,6 @@
     <t>click on share, preview &amp; download</t>
   </si>
   <si>
-    <t>it doesn't support to click</t>
-  </si>
-  <si>
     <t>click on save &amp; next in personal details</t>
   </si>
   <si>
@@ -472,9 +447,6 @@
     <t>click on save &amp; preview</t>
   </si>
   <si>
-    <t>while click on it, function not showing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Job Tracker </t>
   </si>
   <si>
@@ -589,13 +561,13 @@
     <t>while click on it, it doesn't refresh page</t>
   </si>
   <si>
-    <t>Test case ID</t>
-  </si>
-  <si>
-    <t>Test case name</t>
-  </si>
-  <si>
-    <t>Test description</t>
+    <t>while click on it, it open page &amp; send it password to registered mobile number</t>
+  </si>
+  <si>
+    <t>Personal details</t>
+  </si>
+  <si>
+    <t>while click on update profile , it update profile</t>
   </si>
 </sst>
 </file>
@@ -794,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -861,7 +833,22 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,15 +881,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -925,15 +903,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D298C0E-36A9-451E-9442-ED961D6FDCD8}">
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,11 +1237,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1298,16 +1267,16 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1331,24 +1300,30 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>200</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1357,372 +1332,372 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>201</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-    </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+    </row>
+    <row r="11" spans="1:17" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <v>300</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>183</v>
+      <c r="B11" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>301</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>301</v>
+      <c r="A13" s="4">
+        <v>302</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>302</v>
+      <c r="A14" s="2">
+        <v>303</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>303</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>400</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>400</v>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>401</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>402</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>401</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>402</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>403</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>404</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>500</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>500</v>
-      </c>
-      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>503</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>504</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>504</v>
-      </c>
-      <c r="B29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="7" t="s">
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+    </row>
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>601</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>506</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>603</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>603</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>604</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="37" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>700</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="C38" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>605</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="11">
+        <v>701</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>606</v>
-      </c>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>702</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>703</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-    </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>700</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="10" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>704</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>701</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>705</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>71</v>
@@ -1733,7 +1708,7 @@
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>73</v>
@@ -1742,137 +1717,137 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>710</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>706</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>710</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>800</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>801</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>711</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>712</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>803</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>804</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>800</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>90</v>
@@ -1881,9 +1856,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -1894,730 +1869,706 @@
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>804</v>
-      </c>
-      <c r="B62" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
+        <v>900</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>805</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>901</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="2" t="s">
+    </row>
+    <row r="65" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
+        <v>902</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>806</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="66" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
+        <v>903</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="15">
+        <v>903</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="2" t="s">
+    </row>
+    <row r="68" spans="1:3" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
+        <v>904</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>807</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
-    </row>
-    <row r="67" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15">
-        <v>900</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="15">
-        <v>901</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15">
-        <v>902</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
     </row>
     <row r="70" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
-        <v>903</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>95</v>
+        <v>1000</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
-        <v>903</v>
+        <v>1001</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
-        <v>904</v>
+        <v>1002</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
+        <v>1003</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="74" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+    </row>
+    <row r="77" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
+        <v>1100</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="15">
-        <v>1002</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15">
-        <v>1003</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
-        <v>1004</v>
+        <v>1101</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
-        <v>1005</v>
+        <v>1102</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
+      <c r="A80" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
-        <v>1101</v>
+        <v>1201</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
-        <v>1102</v>
+        <v>1202</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
+        <v>1203</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="39"/>
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="18">
+        <v>1205</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="15">
-        <v>1201</v>
-      </c>
-      <c r="B86" s="16" t="s">
+    <row r="87" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15">
+        <v>1206</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="15">
-        <v>1202</v>
-      </c>
-      <c r="B87" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="15">
+        <v>1209</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="18">
-        <v>1205</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>130</v>
+      <c r="C90" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15">
+        <v>1215</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="15">
-        <v>1211</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15">
-        <v>1212</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
     </row>
     <row r="98" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
-        <v>1213</v>
+        <v>1300</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
-        <v>1214</v>
+        <v>1301</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
-        <v>1215</v>
+        <v>1302</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>1303</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="16" t="s">
+    </row>
+    <row r="102" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A101" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="38"/>
-      <c r="C101" s="39"/>
-    </row>
-    <row r="102" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="15">
-        <v>1300</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="B102" s="27"/>
+      <c r="C102" s="28"/>
     </row>
     <row r="103" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
-        <v>1301</v>
+        <v>1400</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
-        <v>1302</v>
+        <v>1401</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
-        <v>1303</v>
+        <v>1402</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
+        <v>1403</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+    </row>
+    <row r="108" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>1500</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C108" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A106" s="37" t="s">
+    <row r="109" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="23">
+        <v>1501</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B106" s="38"/>
-      <c r="C106" s="39"/>
-    </row>
-    <row r="107" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15">
-        <v>1400</v>
-      </c>
-      <c r="B107" s="16" t="s">
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+    </row>
+    <row r="111" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15">
+        <v>1600</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="15">
-        <v>1401</v>
-      </c>
-      <c r="B108" s="16" t="s">
+      <c r="C111" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="23">
+        <v>1601</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A113" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+    </row>
+    <row r="114" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23">
+        <v>1700</v>
+      </c>
+      <c r="B114" s="24" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15">
-        <v>1402</v>
-      </c>
-      <c r="B109" s="16" t="s">
+      <c r="C114" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="23">
+        <v>1701</v>
+      </c>
+      <c r="B115" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C115" s="24" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="15">
-        <v>1403</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A111" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="B111" s="49"/>
-      <c r="C111" s="50"/>
-    </row>
-    <row r="112" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15">
-        <v>1500</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="23">
-        <v>1501</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A114" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B114" s="49"/>
-      <c r="C114" s="50"/>
-    </row>
-    <row r="115" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="15">
-        <v>1600</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
-        <v>1601</v>
+        <v>1702</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A117" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="23">
+        <v>1703</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="23">
+        <v>1704</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="23">
+        <v>1705</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A120" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B117" s="38"/>
-      <c r="C117" s="39"/>
-    </row>
-    <row r="118" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="23">
-        <v>1700</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="23">
-        <v>1701</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="23">
-        <v>1702</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>63</v>
-      </c>
+      <c r="B120" s="27"/>
+      <c r="C120" s="28"/>
     </row>
     <row r="121" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
-        <v>1703</v>
+        <v>1800</v>
       </c>
       <c r="B121" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="23">
+        <v>1801</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A123" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="27"/>
+      <c r="C123" s="28"/>
+    </row>
+    <row r="124" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="23">
+        <v>1900</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="23">
-        <v>1704</v>
-      </c>
-      <c r="B122" s="24" t="s">
+      <c r="B125" s="27"/>
+      <c r="C125" s="28"/>
+    </row>
+    <row r="126" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C126" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="23">
-        <v>1705</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A124" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B124" s="38"/>
-      <c r="C124" s="39"/>
-    </row>
-    <row r="125" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="23">
-        <v>1800</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="23">
-        <v>1801</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A127" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B127" s="38"/>
-      <c r="C127" s="39"/>
-    </row>
-    <row r="128" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="23">
-        <v>1900</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B129" s="38"/>
-      <c r="C129" s="39"/>
-    </row>
-    <row r="130" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>181</v>
-      </c>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
@@ -2664,87 +2615,32 @@
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A113:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7703FD9-8492-4889-8C37-E115F0074C57}">
-  <dimension ref="A2:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Project/HLR (1).xlsx
+++ b/Project/HLR (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6096f0eba2cb6f58/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{6684AAA0-C4DC-4A19-83D9-C928D9DDEFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72022AD1-9162-4732-93CA-3C6987CF9B18}"/>
+  <xr:revisionPtr revIDLastSave="539" documentId="13_ncr:1_{6684AAA0-C4DC-4A19-83D9-C928D9DDEFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22300E0C-E766-4F85-9503-E84A4D112E23}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2BDF9B1-08CF-4084-B7FC-63B7E276CA83}"/>
   </bookViews>
@@ -543,9 +543,6 @@
     <t>click on bottom button</t>
   </si>
   <si>
-    <t>while click on different button it works accordingly</t>
-  </si>
-  <si>
     <t>Important reminders</t>
   </si>
   <si>
@@ -568,6 +565,9 @@
   </si>
   <si>
     <t>while click on update profile , it update profile</t>
+  </si>
+  <si>
+    <t>while click on, it works as funct. Id 300,400,600,1300</t>
   </si>
 </sst>
 </file>
@@ -833,6 +833,36 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,6 +872,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,60 +903,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D298C0E-36A9-451E-9442-ED961D6FDCD8}">
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,11 +1237,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1267,16 +1267,16 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1304,11 +1304,11 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1318,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1333,21 +1333,21 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>300</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1384,11 +1384,11 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1406,10 +1406,10 @@
         <v>401</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1435,11 +1435,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1530,11 +1530,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1614,11 +1614,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
     </row>
     <row r="38" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -1784,11 +1784,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
@@ -1879,11 +1879,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
     </row>
     <row r="63" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
@@ -1952,11 +1952,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
     </row>
     <row r="70" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
@@ -2025,11 +2025,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
     </row>
     <row r="77" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
@@ -2065,11 +2065,11 @@
       </c>
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="38"/>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
@@ -2248,11 +2248,11 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="38"/>
     </row>
     <row r="98" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
@@ -2299,11 +2299,11 @@
       </c>
     </row>
     <row r="102" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B102" s="27"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="38"/>
     </row>
     <row r="103" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
@@ -2350,11 +2350,11 @@
       </c>
     </row>
     <row r="107" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="31"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="49"/>
     </row>
     <row r="108" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
@@ -2379,11 +2379,11 @@
       </c>
     </row>
     <row r="110" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="31"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="49"/>
     </row>
     <row r="111" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
@@ -2408,11 +2408,11 @@
       </c>
     </row>
     <row r="113" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
     </row>
     <row r="114" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
@@ -2481,11 +2481,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="28"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="38"/>
     </row>
     <row r="121" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
@@ -2510,11 +2510,11 @@
       </c>
     </row>
     <row r="123" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="B123" s="27"/>
-      <c r="C123" s="28"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="38"/>
     </row>
     <row r="124" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
@@ -2524,25 +2524,25 @@
         <v>168</v>
       </c>
       <c r="C124" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A125" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B125" s="27"/>
-      <c r="C125" s="28"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="38"/>
     </row>
     <row r="126" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>2000</v>
       </c>
       <c r="B126" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2617,6 +2617,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A80:C80"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A4:C4"/>
@@ -2626,19 +2639,6 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A113:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
